--- a/biology/Médecine/1419_en_santé_et_médecine/1419_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1419_en_santé_et_médecine/1419_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1419_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1419_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1419 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1419_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1419_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital des Innocents (Spedale degli Innocenti) par la corporation des métiers de la soie (Arte della Seta o di Por Santa Maria) de Florence [1].
-Fondation de l'université de Rostock, ville de la Hanse, en Mecklembourg, où la médecine est enseignée dès l'origine[2].
-Le prince évêque Johann II accorde à la miresse Sarah  de Wurtzbourg le droit de pratiquer la médecine dans tout le duché de Franconie[3].
-Vers 1419 : fondation de l'hôpital de Loches en Touraine[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital des Innocents (Spedale degli Innocenti) par la corporation des métiers de la soie (Arte della Seta o di Por Santa Maria) de Florence .
+Fondation de l'université de Rostock, ville de la Hanse, en Mecklembourg, où la médecine est enseignée dès l'origine.
+Le prince évêque Johann II accorde à la miresse Sarah  de Wurtzbourg le droit de pratiquer la médecine dans tout le duché de Franconie.
+Vers 1419 : fondation de l'hôpital de Loches en Touraine.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1419_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1419_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1419-1420 : Ugolino da Montecatini (c. 1345-1425) fait paraître le Tractatus de balneis, important traité d'hydrothérapie thermale[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1419-1420 : Ugolino da Montecatini (c. 1345-1425) fait paraître le Tractatus de balneis, important traité d'hydrothérapie thermale.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1419_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1419_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1353-1419 : fl. Jean d'Avignon, médecin, actif en Andalousie et à Avignon[6].
-1394-1419 : fl. Jean de Chalon, médecin à la cour de Bourgogne ; il soigne en 1407 Jeanne de Luxembourg[7], duchesse de Brabant, épouse d’Antoine de Bourgogne, dans sa dernière maladie[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1353-1419 : fl. Jean d'Avignon, médecin, actif en Andalousie et à Avignon.
+1394-1419 : fl. Jean de Chalon, médecin à la cour de Bourgogne ; il soigne en 1407 Jeanne de Luxembourg, duchesse de Brabant, épouse d’Antoine de Bourgogne, dans sa dernière maladie.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1419_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1419_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Giovanni Garzoni (it) (mort en 1505), médecin, et historien humaniste, professeur de médecine et de philosophie à Bologne, archiatre des antipapes Nicolas V et Calixte III[9],[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Giovanni Garzoni (it) (mort en 1505), médecin, et historien humaniste, professeur de médecine et de philosophie à Bologne, archiatre des antipapes Nicolas V et Calixte III,.</t>
         </is>
       </c>
     </row>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1419_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1419_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,11 +655,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Février-mars : Guillaume Regnaudi (né à une date inconnue), licencié en médecine, chanoine de Saint-Étienne de Troyes[11].
-Pierre de Brega (né à une date inconnue), reçu docteur en médecine à Padoue, professeur à Cologne et Heildeberg[12].
-1419-1420 : Jean de Pise (né à une date inconnue), chirurgien puis médecin, reçu docteur en médecine à Paris en 1408 après avoir promis de ne plus exercer la chirurgie[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Février-mars : Guillaume Regnaudi (né à une date inconnue), licencié en médecine, chanoine de Saint-Étienne de Troyes.
+Pierre de Brega (né à une date inconnue), reçu docteur en médecine à Padoue, professeur à Cologne et Heildeberg.
+1419-1420 : Jean de Pise (né à une date inconnue), chirurgien puis médecin, reçu docteur en médecine à Paris en 1408 après avoir promis de ne plus exercer la chirurgie.</t>
         </is>
       </c>
     </row>
